--- a/Сети_осень2011 обработанный - копия.xlsx
+++ b/Сети_осень2011 обработанный - копия.xlsx
@@ -3970,10 +3970,10 @@
   <dimension ref="A1:DR37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="BR3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="CK18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS25" sqref="BS25:CQ25"/>
+      <selection pane="bottomRight" activeCell="CE7" sqref="CE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
